--- a/Updated PID.xlsx
+++ b/Updated PID.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yewheng/Desktop/CZ3004-MDP-Arduino/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielwijaya19/Desktop/Arduino-Explorer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF893BBA-F7A8-7340-9EA8-5E593E3FFD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD438C5-A3D5-A34B-8D78-F1BDADFA11F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16300" windowHeight="16200" xr2:uid="{5602EDE8-970A-B14A-AEE3-714A8B5C1797}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{5602EDE8-970A-B14A-AEE3-714A8B5C1797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,17 +156,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2367,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AA3A8-5A4A-6D4B-A421-65B6ADB34D30}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2517,303 +2517,303 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="D30" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
         <v>0.1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.08</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>0.02</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <f xml:space="preserve"> B32 + (B30/2)</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <f xml:space="preserve"> D32 + (D30/2)</f>
-        <v>2.2499999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="4">
-        <v>52.91</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="2">
+        <v>70.91</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="4">
-        <v>59.95</v>
+      <c r="D34" s="2">
+        <v>77.67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="4">
-        <v>61.22</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="2">
+        <v>87.98</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="4">
-        <v>68.849999999999994</v>
+      <c r="D35" s="2">
+        <v>95.28</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>250</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>300</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <f xml:space="preserve"> (B35 - B34) / (B37 - B36)</f>
-        <v>0.16620000000000004</v>
-      </c>
-      <c r="C39" s="2" t="s">
+        <v>0.34140000000000015</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <f xml:space="preserve"> (D35 - D34) / (D37 - D36)</f>
-        <v>0.17799999999999983</v>
+        <v>0.35220000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <f xml:space="preserve"> (1.2 * B31) / (B39 * B33)</f>
-        <v>32.089851584436417</v>
-      </c>
-      <c r="C40" s="2" t="s">
+        <v>9.3731693028705276</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <f xml:space="preserve"> (1.2 * D31) / (D39 * D33)</f>
-        <v>23.970037453183547</v>
+        <v>7.5714556123414729</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <f>(0.6*B31)/(B39*(B33^2))</f>
-        <v>713.10781298747588</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <v>104.14632558745032</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <f>(0.6*D31)/(D39*(D33^2))</f>
-        <v>532.66749895963437</v>
+        <v>84.127284581571914</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <f xml:space="preserve"> (0.6 * B31) / B39</f>
-        <v>0.36101083032490966</v>
-      </c>
-      <c r="C42" s="2" t="s">
+        <v>0.21089630931458689</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <f xml:space="preserve"> (0.6 * D31) / D39</f>
-        <v>0.26966292134831488</v>
+        <v>0.17035775127768313</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <f>B40</f>
-        <v>32.089851584436417</v>
-      </c>
-      <c r="C44" s="2" t="s">
+        <v>9.3731693028705276</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <f>D40</f>
-        <v>23.970037453183547</v>
+        <v>7.5714556123414729</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <f xml:space="preserve"> B41 * B30</f>
-        <v>3.5655390649373793</v>
-      </c>
-      <c r="C45" s="2" t="s">
+        <v>5.2073162793725167</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <f xml:space="preserve"> D41 * D30</f>
-        <v>2.6633374947981721</v>
+        <v>4.2063642290785959</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <f xml:space="preserve"> B42 / B30</f>
-        <v>72.202166064981924</v>
-      </c>
-      <c r="C46" s="2" t="s">
+        <v>4.2179261862917379</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <f xml:space="preserve"> D42 / D30</f>
-        <v>53.932584269662975</v>
+        <v>3.4071550255536622</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <f xml:space="preserve"> B44 + B45 + B46</f>
-        <v>107.85755671435572</v>
-      </c>
-      <c r="C47" s="2" t="s">
+        <v>18.798411768534784</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <f xml:space="preserve"> D44 + D45 + D46</f>
-        <v>80.565959217644689</v>
+        <v>15.184974866973731</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <f xml:space="preserve"> B44 - (2 * B46)</f>
-        <v>-112.31448054552743</v>
-      </c>
-      <c r="C48" s="2" t="s">
+        <v>0.93731693028705187</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <f xml:space="preserve"> D44 - (2 * D46)</f>
-        <v>-83.895131086142399</v>
+        <v>0.75714556123414845</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <f xml:space="preserve"> B46</f>
-        <v>72.202166064981924</v>
-      </c>
-      <c r="C49" s="2" t="s">
+        <v>4.2179261862917379</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <f xml:space="preserve"> D46</f>
-        <v>53.932584269662975</v>
+        <v>3.4071550255536622</v>
       </c>
     </row>
   </sheetData>

--- a/Updated PID.xlsx
+++ b/Updated PID.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielwijaya19/Desktop/Arduino-Explorer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yewheng/Desktop/CZ3004-MDP-Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD438C5-A3D5-A34B-8D78-F1BDADFA11F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48979DFA-C424-6E4A-8C52-ADE553981C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{5602EDE8-970A-B14A-AEE3-714A8B5C1797}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{5602EDE8-970A-B14A-AEE3-714A8B5C1797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$52</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$53:$A$66</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$52</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$53:$B$66</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$52</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$53:$A$66</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$52</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$53:$B$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Wheel Speed Input</t>
   </si>
@@ -111,6 +121,12 @@
   </si>
   <si>
     <t>K3 = KD'</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>PID</t>
   </si>
 </sst>
 </file>
@@ -879,6 +895,393 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.312489063867016E-2"/>
+          <c:y val="0.17168999708369789"/>
+          <c:w val="0.85220844269466312"/>
+          <c:h val="0.72094889180519106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$53:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>473528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>478672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>483756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>488844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>499068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>504140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>509160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>515256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>521188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>527000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>532740</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>538452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>544008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CD0-EC41-B297-49703E1C902B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="648192432"/>
+        <c:axId val="648194064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="648192432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648194064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="648194064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648192432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -959,6 +1362,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1476,6 +1919,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2060,6 +3019,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>287421</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>17231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165620</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>153589</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214A11B8-6A8E-EA4C-8B44-AE6090CDE486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2365,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AA3A8-5A4A-6D4B-A421-65B6ADB34D30}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2531,13 +3526,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2545,13 +3540,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>0.12</v>
+        <v>5.0200000000000002E-3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>0.1</v>
+        <v>2.2520000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,13 +3554,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2574,14 +3569,14 @@
       </c>
       <c r="B33" s="2">
         <f xml:space="preserve"> B32 + (B30/2)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2">
         <f xml:space="preserve"> D32 + (D30/2)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2589,13 +3584,13 @@
         <v>10</v>
       </c>
       <c r="B34" s="2">
-        <v>70.91</v>
+        <v>85.37</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>77.67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2603,13 +3598,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="2">
-        <v>87.98</v>
+        <v>106.71</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>95.28</v>
+        <v>104.52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2653,15 +3648,15 @@
         <v>14</v>
       </c>
       <c r="B39" s="2">
-        <f xml:space="preserve"> (B35 - B34) / (B37 - B36)</f>
-        <v>0.34140000000000015</v>
+        <f xml:space="preserve"> ((B35 - B34) / (B37 - B36)) * 100</f>
+        <v>42.679999999999978</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2">
-        <f xml:space="preserve"> (D35 - D34) / (D37 - D36)</f>
-        <v>0.35220000000000001</v>
+        <f xml:space="preserve"> ((D35 - D34) / (D37 - D36)) * 100</f>
+        <v>29.039999999999992</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2670,14 +3665,14 @@
       </c>
       <c r="B40" s="2">
         <f xml:space="preserve"> (1.2 * B31) / (B39 * B33)</f>
-        <v>9.3731693028705276</v>
+        <v>2.3523898781630747E-3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2">
         <f xml:space="preserve"> (1.2 * D31) / (D39 * D33)</f>
-        <v>7.5714556123414729</v>
+        <v>6.2038567493112953E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2686,14 +3681,14 @@
       </c>
       <c r="B41" s="2">
         <f>(0.6*B31)/(B39*(B33^2))</f>
-        <v>104.14632558745032</v>
+        <v>1.960324898469229E-2</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2">
         <f>(0.6*D31)/(D39*(D33^2))</f>
-        <v>84.127284581571914</v>
+        <v>2.0679522497704318E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2702,14 +3697,14 @@
       </c>
       <c r="B42" s="2">
         <f xml:space="preserve"> (0.6 * B31) / B39</f>
-        <v>0.21089630931458689</v>
+        <v>7.0571696344892256E-5</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2">
         <f xml:space="preserve"> (0.6 * D31) / D39</f>
-        <v>0.17035775127768313</v>
+        <v>4.6528925619834726E-5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" x14ac:dyDescent="0.25">
@@ -2726,14 +3721,14 @@
       </c>
       <c r="B44" s="2">
         <f>B40</f>
-        <v>9.3731693028705276</v>
+        <v>2.3523898781630747E-3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="2">
         <f>D40</f>
-        <v>7.5714556123414729</v>
+        <v>6.2038567493112953E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2742,14 +3737,14 @@
       </c>
       <c r="B45" s="2">
         <f xml:space="preserve"> B41 * B30</f>
-        <v>5.2073162793725167</v>
+        <v>1.960324898469229E-3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="2">
         <f xml:space="preserve"> D41 * D30</f>
-        <v>4.2063642290785959</v>
+        <v>2.0679522497704319E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,14 +3753,14 @@
       </c>
       <c r="B46" s="2">
         <f xml:space="preserve"> B42 / B30</f>
-        <v>4.2179261862917379</v>
+        <v>7.0571696344892253E-4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="2">
         <f xml:space="preserve"> D42 / D30</f>
-        <v>3.4071550255536622</v>
+        <v>4.6528925619834723E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,14 +3769,14 @@
       </c>
       <c r="B47" s="2">
         <f xml:space="preserve"> B44 + B45 + B46</f>
-        <v>18.798411768534784</v>
+        <v>5.0184317400812266E-3</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="2">
         <f xml:space="preserve"> D44 + D45 + D46</f>
-        <v>15.184974866973731</v>
+        <v>1.2924701561065201E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2790,14 +3785,14 @@
       </c>
       <c r="B48" s="2">
         <f xml:space="preserve"> B44 - (2 * B46)</f>
-        <v>0.93731693028705187</v>
+        <v>9.4095595126522961E-4</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="2">
         <f xml:space="preserve"> D44 - (2 * D46)</f>
-        <v>0.75714556123414845</v>
+        <v>-3.1019283746556493E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2806,14 +3801,134 @@
       </c>
       <c r="B49" s="2">
         <f xml:space="preserve"> B46</f>
-        <v>4.2179261862917379</v>
+        <v>7.0571696344892253E-4</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2">
         <f xml:space="preserve"> D46</f>
-        <v>3.4071550255536622</v>
+        <v>4.6528925619834723E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>473528</v>
+      </c>
+      <c r="B53">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>478672</v>
+      </c>
+      <c r="B54">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>483756</v>
+      </c>
+      <c r="B55">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>488844</v>
+      </c>
+      <c r="B56">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>493988</v>
+      </c>
+      <c r="B57">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>499068</v>
+      </c>
+      <c r="B58">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>504140</v>
+      </c>
+      <c r="B59">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>509160</v>
+      </c>
+      <c r="B60">
+        <v>106.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>515256</v>
+      </c>
+      <c r="B61">
+        <v>106.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>521188</v>
+      </c>
+      <c r="B62">
+        <v>106.71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>527000</v>
+      </c>
+      <c r="B63">
+        <v>106.71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>532740</v>
+      </c>
+      <c r="B64">
+        <v>106.71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>538452</v>
+      </c>
+      <c r="B65">
+        <v>106.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>544008</v>
+      </c>
+      <c r="B66">
+        <v>106.71</v>
       </c>
     </row>
   </sheetData>

--- a/Updated PID.xlsx
+++ b/Updated PID.xlsx
@@ -8,23 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yewheng/Desktop/CZ3004-MDP-Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48979DFA-C424-6E4A-8C52-ADE553981C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BEC28D-800B-8E4C-AFF8-0E898DA5E157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{5602EDE8-970A-B14A-AEE3-714A8B5C1797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$52</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$53:$A$66</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$52</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$53:$B$66</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$52</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$53:$A$66</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$52</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$53:$B$66</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Wheel Speed Input</t>
   </si>
@@ -121,12 +111,6 @@
   </si>
   <si>
     <t>K3 = KD'</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>PID</t>
   </si>
 </sst>
 </file>
@@ -895,393 +879,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.312489063867016E-2"/>
-          <c:y val="0.17168999708369789"/>
-          <c:w val="0.85220844269466312"/>
-          <c:h val="0.72094889180519106"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$53:$A$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>473528</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>478672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>483756</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>488844</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>493988</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>499068</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>504140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>509160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>515256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>521188</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>527000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>532740</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>538452</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>544008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$53:$B$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>85.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85.37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>106.71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>106.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>106.71</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>106.71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>106.71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>106.71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>106.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CD0-EC41-B297-49703E1C902B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="648192432"/>
-        <c:axId val="648194064"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="648192432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="648194064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="648194064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="648192432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1362,46 +959,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1919,522 +1476,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3019,42 +2060,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>287421</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>17231</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>165620</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>153589</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214A11B8-6A8E-EA4C-8B44-AE6090CDE486}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3360,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AA3A8-5A4A-6D4B-A421-65B6ADB34D30}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3584,13 +2589,13 @@
         <v>10</v>
       </c>
       <c r="B34" s="2">
-        <v>85.37</v>
+        <v>90.51</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3598,13 +2603,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="2">
-        <v>106.71</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>104.52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3649,14 +2654,14 @@
       </c>
       <c r="B39" s="2">
         <f xml:space="preserve"> ((B35 - B34) / (B37 - B36)) * 100</f>
-        <v>42.679999999999978</v>
+        <v>36.97999999999999</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2">
         <f xml:space="preserve"> ((D35 - D34) / (D37 - D36)) * 100</f>
-        <v>29.039999999999992</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3665,14 +2670,14 @@
       </c>
       <c r="B40" s="2">
         <f xml:space="preserve"> (1.2 * B31) / (B39 * B33)</f>
-        <v>2.3523898781630747E-3</v>
+        <v>2.7149810708491083E-3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2">
         <f xml:space="preserve"> (1.2 * D31) / (D39 * D33)</f>
-        <v>6.2038567493112953E-4</v>
+        <v>2.8149999999999996E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3681,14 +2686,14 @@
       </c>
       <c r="B41" s="2">
         <f>(0.6*B31)/(B39*(B33^2))</f>
-        <v>1.960324898469229E-2</v>
+        <v>2.2624842257075898E-2</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2">
         <f>(0.6*D31)/(D39*(D33^2))</f>
-        <v>2.0679522497704318E-3</v>
+        <v>9.3833333333333312E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3697,14 +2702,14 @@
       </c>
       <c r="B42" s="2">
         <f xml:space="preserve"> (0.6 * B31) / B39</f>
-        <v>7.0571696344892256E-5</v>
+        <v>8.1449432125473248E-5</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2">
         <f xml:space="preserve"> (0.6 * D31) / D39</f>
-        <v>4.6528925619834726E-5</v>
+        <v>2.1112500000000002E-5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" x14ac:dyDescent="0.25">
@@ -3721,14 +2726,14 @@
       </c>
       <c r="B44" s="2">
         <f>B40</f>
-        <v>2.3523898781630747E-3</v>
+        <v>2.7149810708491083E-3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="2">
         <f>D40</f>
-        <v>6.2038567493112953E-4</v>
+        <v>2.8149999999999996E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3737,14 +2742,14 @@
       </c>
       <c r="B45" s="2">
         <f xml:space="preserve"> B41 * B30</f>
-        <v>1.960324898469229E-3</v>
+        <v>2.2624842257075897E-3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="2">
         <f xml:space="preserve"> D41 * D30</f>
-        <v>2.0679522497704319E-4</v>
+        <v>9.3833333333333315E-5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3753,14 +2758,14 @@
       </c>
       <c r="B46" s="2">
         <f xml:space="preserve"> B42 / B30</f>
-        <v>7.0571696344892253E-4</v>
+        <v>8.1449432125473248E-4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="2">
         <f xml:space="preserve"> D42 / D30</f>
-        <v>4.6528925619834723E-4</v>
+        <v>2.11125E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3769,14 +2774,14 @@
       </c>
       <c r="B47" s="2">
         <f xml:space="preserve"> B44 + B45 + B46</f>
-        <v>5.0184317400812266E-3</v>
+        <v>5.7919596178114307E-3</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="2">
         <f xml:space="preserve"> D44 + D45 + D46</f>
-        <v>1.2924701561065201E-3</v>
+        <v>5.8645833333333325E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3785,14 +2790,14 @@
       </c>
       <c r="B48" s="2">
         <f xml:space="preserve"> B44 - (2 * B46)</f>
-        <v>9.4095595126522961E-4</v>
+        <v>1.0859924283396433E-3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="2">
         <f xml:space="preserve"> D44 - (2 * D46)</f>
-        <v>-3.1019283746556493E-4</v>
+        <v>-1.4075000000000003E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3801,135 +2806,18 @@
       </c>
       <c r="B49" s="2">
         <f xml:space="preserve"> B46</f>
-        <v>7.0571696344892253E-4</v>
+        <v>8.1449432125473248E-4</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2">
         <f xml:space="preserve"> D46</f>
-        <v>4.6528925619834723E-4</v>
+        <v>2.11125E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>473528</v>
-      </c>
-      <c r="B53">
-        <v>85.37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>478672</v>
-      </c>
-      <c r="B54">
-        <v>85.37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>483756</v>
-      </c>
-      <c r="B55">
-        <v>85.37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>488844</v>
-      </c>
-      <c r="B56">
-        <v>85.37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>493988</v>
-      </c>
-      <c r="B57">
-        <v>85.37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>499068</v>
-      </c>
-      <c r="B58">
-        <v>85.37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>504140</v>
-      </c>
-      <c r="B59">
-        <v>85.37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>509160</v>
-      </c>
-      <c r="B60">
-        <v>106.71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>515256</v>
-      </c>
-      <c r="B61">
-        <v>106.71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>521188</v>
-      </c>
-      <c r="B62">
-        <v>106.71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>527000</v>
-      </c>
-      <c r="B63">
-        <v>106.71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>532740</v>
-      </c>
-      <c r="B64">
-        <v>106.71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>538452</v>
-      </c>
-      <c r="B65">
-        <v>106.71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>544008</v>
-      </c>
-      <c r="B66">
-        <v>106.71</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
